--- a/luckydraw-contohprizedata.xlsx
+++ b/luckydraw-contohprizedata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\htdocs\luckydraw-randomize\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matak\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1D6FE1-44BC-48AA-98A5-3EEFEF69A062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618C9282-4F8F-45F8-BE88-F2818B3DD1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,37 +25,283 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
-  <si>
-    <t>prize</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>jumlah</t>
-  </si>
-  <si>
-    <t>Topi</t>
-  </si>
-  <si>
-    <t>Sendal</t>
-  </si>
-  <si>
-    <t>Sepatu</t>
-  </si>
-  <si>
-    <t>Kacamata</t>
-  </si>
-  <si>
-    <t>Masker</t>
+    <t>Rice Cooker_126</t>
+  </si>
+  <si>
+    <t>MIYAKO</t>
+  </si>
+  <si>
+    <t>Kitchen Equipment</t>
+  </si>
+  <si>
+    <t>Rice Cooker_131</t>
+  </si>
+  <si>
+    <t>UTU</t>
+  </si>
+  <si>
+    <t>Rice Cooker_110</t>
+  </si>
+  <si>
+    <t>Rice Cooker_73</t>
+  </si>
+  <si>
+    <t>PHILIPS</t>
+  </si>
+  <si>
+    <t>Rice Cooker_74</t>
+  </si>
+  <si>
+    <t>Rice Cooker_81</t>
+  </si>
+  <si>
+    <t>SHARP</t>
+  </si>
+  <si>
+    <t>Rice Cooker_82</t>
+  </si>
+  <si>
+    <t>Rice Cooker_83</t>
+  </si>
+  <si>
+    <t>Rice Cooker_111</t>
+  </si>
+  <si>
+    <t>Rice Cooker_112</t>
+  </si>
+  <si>
+    <t>Rice Cooker_113</t>
+  </si>
+  <si>
+    <t>Rice Cooker_114</t>
+  </si>
+  <si>
+    <t>Rice Cooker_115</t>
+  </si>
+  <si>
+    <t>Rice Cooker_116</t>
+  </si>
+  <si>
+    <t>Rice Cooker_117</t>
+  </si>
+  <si>
+    <t>Set Kukusan_132</t>
+  </si>
+  <si>
+    <t>VIENNA</t>
+  </si>
+  <si>
+    <t>Set Kukusan_133</t>
+  </si>
+  <si>
+    <t>Set Pel Lantai_84</t>
+  </si>
+  <si>
+    <t>PRO CLEAN</t>
+  </si>
+  <si>
+    <t>Set Pel Lantai_85</t>
+  </si>
+  <si>
+    <t>Toaster_134</t>
+  </si>
+  <si>
+    <t>ADVANCE</t>
+  </si>
+  <si>
+    <t>Toaster_86</t>
+  </si>
+  <si>
+    <t>Toaster_87</t>
+  </si>
+  <si>
+    <t>Waffle Maker_135</t>
+  </si>
+  <si>
+    <t>Waffle Maker_136</t>
+  </si>
+  <si>
+    <t>Boneka Bebek Topi Coklat Besar_172</t>
+  </si>
+  <si>
+    <t>ISTANA BONEKA</t>
+  </si>
+  <si>
+    <t>Mainan Anak</t>
+  </si>
+  <si>
+    <t>Boneka Bebek Topi Coklat Kecil_173</t>
+  </si>
+  <si>
+    <t>Boneka Bebek Topi Hijau Kecil_174</t>
+  </si>
+  <si>
+    <t>Boneka Beruang Besar Coklat Dasi Kupu-kupu_175</t>
+  </si>
+  <si>
+    <t>Boneka Beruang Dasi Kotak Coklat Cream_176</t>
+  </si>
+  <si>
+    <t>Boneka Beruang Shal Coklat_171</t>
+  </si>
+  <si>
+    <t>Boneka Cewek Tas Kuning_177</t>
+  </si>
+  <si>
+    <t>Boneka Gajah Abu-abu_178</t>
+  </si>
+  <si>
+    <t>Boneka Gajah Biru_180</t>
+  </si>
+  <si>
+    <t>Boneka Kelinci Baju Biru_179</t>
+  </si>
+  <si>
+    <t>Boneka Kelinci Baju Pink_181</t>
+  </si>
+  <si>
+    <t>Boneka Kucing Putih Gembul_182</t>
+  </si>
+  <si>
+    <t>MINI SO</t>
+  </si>
+  <si>
+    <t>Boneka Kucing Putih Gembul_183</t>
+  </si>
+  <si>
+    <t>Boneka Kucing Putih Lurus_184</t>
+  </si>
+  <si>
+    <t>Boneka Kucing Putih Lurus_185</t>
+  </si>
+  <si>
+    <t>Boneka Kucing Putih Lurus_186</t>
+  </si>
+  <si>
+    <t>Boneka Kucing Putih Lurus_187</t>
+  </si>
+  <si>
+    <t>Boneka Kuda Poni Kuning_188</t>
+  </si>
+  <si>
+    <t>Boneka Kuda Poni Pink_189</t>
+  </si>
+  <si>
+    <t>Boneka Panda Hitam Putih_190</t>
+  </si>
+  <si>
+    <t>Boneka Teddy Bear Cewek Biru Bunga_191</t>
+  </si>
+  <si>
+    <t>Boneka Teddy Bear Cewek Jeans_192</t>
+  </si>
+  <si>
+    <t>Boneka Teddy Bear Cowok Baju Hijau_163</t>
+  </si>
+  <si>
+    <t>Boneka Teddy Bear Cowok Jeans_164</t>
+  </si>
+  <si>
+    <t>Boneka Tikus Pink_193</t>
+  </si>
+  <si>
+    <t>Boneka Tikus Pink_194</t>
+  </si>
+  <si>
+    <t>NERF Fortnite Blue Shock_165</t>
+  </si>
+  <si>
+    <t>NERF</t>
+  </si>
+  <si>
+    <t>NERF Fortnite Compact SMG_166</t>
+  </si>
+  <si>
+    <t>NERF Series Agility_195</t>
+  </si>
+  <si>
+    <t>NERF Series Agility_196</t>
+  </si>
+  <si>
+    <t>NERF Series Agility_197</t>
+  </si>
+  <si>
+    <t>NERF Series Agility_198</t>
+  </si>
+  <si>
+    <t>NERF Series Pinpoint_167</t>
+  </si>
+  <si>
+    <t>NERF Series Seeker_168</t>
+  </si>
+  <si>
+    <t>NERF Series Shadow Storm_169</t>
+  </si>
+  <si>
+    <t>NERF Series Strikeback_170</t>
+  </si>
+  <si>
+    <t>RC Bat Mobile Tumbler RC_154</t>
+  </si>
+  <si>
+    <t>KIDZ STATION</t>
+  </si>
+  <si>
+    <t>RC Fast &amp; Furious Drift Power Slide_153</t>
+  </si>
+  <si>
+    <t>RC Mobil Jeep Land Cruiser_155</t>
+  </si>
+  <si>
+    <t>REMOTE CONTROL</t>
+  </si>
+  <si>
+    <t>RC Mobil Jeep Land Rover Abu-abu_156</t>
+  </si>
+  <si>
+    <t>RC Mobil Jeep Orange 4x4_157</t>
+  </si>
+  <si>
+    <t>RC Mobil Jeep Rock Crawler Classic_158</t>
+  </si>
+  <si>
+    <t>RC Mobil Storm Off Road_159</t>
+  </si>
+  <si>
+    <t>RC Mobil Suzuki Jimny_160</t>
+  </si>
+  <si>
+    <t>RC Motor Battles Remote Control_161</t>
+  </si>
+  <si>
+    <t>RC Rampage Renegade Remote Control_162</t>
+  </si>
+  <si>
+    <t>Kode Hadiah</t>
+  </si>
+  <si>
+    <t>Merk</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t>Kategori</t>
+  </si>
+  <si>
+    <t>Nama</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,16 +309,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,12 +338,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,122 +648,1432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>131</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>126</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>132</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>131</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>133</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>110</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>134</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="C5" s="1">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>135</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>74</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>136</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>81</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>137</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>82</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>138</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>139</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>111</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>140</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>112</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>141</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
+        <v>113</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>142</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>114</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>143</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1">
+        <v>115</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>144</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1">
+        <v>116</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>145</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+      <c r="C16" s="1">
+        <v>117</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>146</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1">
+        <v>132</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>147</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1">
+        <v>133</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>148</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1">
+        <v>84</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>149</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1">
+        <v>85</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>150</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1">
+        <v>134</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>151</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1">
+        <v>86</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>152</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1">
+        <v>87</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>153</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="1">
+        <v>135</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>154</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1">
+        <v>136</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>155</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1">
+        <v>172</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>156</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1">
+        <v>173</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>157</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="1">
+        <v>174</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>158</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="1">
+        <v>175</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>159</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="1">
+        <v>176</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>160</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="1">
+        <v>171</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>161</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="1">
+        <v>177</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>162</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="1">
+        <v>178</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>163</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1">
+        <v>180</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>164</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="1">
+        <v>179</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>165</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1">
+        <v>181</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>166</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1">
+        <v>182</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>167</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="1">
+        <v>183</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>168</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="1">
+        <v>184</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>169</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="1">
+        <v>185</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>170</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="1">
+        <v>186</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>171</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="1">
+        <v>187</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>172</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="1">
+        <v>188</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>173</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="1">
+        <v>189</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>174</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="1">
+        <v>190</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>175</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="1">
+        <v>191</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>176</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="1">
+        <v>192</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>177</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="1">
+        <v>163</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>178</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="1">
+        <v>164</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>179</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="1">
+        <v>193</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>180</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="1">
+        <v>194</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>181</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="1">
+        <v>165</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>182</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="1">
+        <v>166</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>183</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="1">
+        <v>195</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>184</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="1">
+        <v>196</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>185</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="1">
+        <v>197</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>186</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="1">
+        <v>198</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>187</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="1">
+        <v>167</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>188</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="1">
+        <v>168</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>189</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="1">
+        <v>169</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>190</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="1">
+        <v>170</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>191</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="1">
+        <v>154</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>192</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="1">
+        <v>153</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>193</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="1">
+        <v>155</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>194</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="1">
+        <v>156</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>195</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="1">
+        <v>157</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>196</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="1">
+        <v>158</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>197</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="1">
+        <v>159</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>198</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="1">
+        <v>160</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>199</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="1">
+        <v>161</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>200</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="1">
+        <v>162</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
